--- a/SenatorOccupationWikiData.xlsx
+++ b/SenatorOccupationWikiData.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramya/Documents/GitHub/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F60B0-A9C0-4943-9888-5894586C365F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF74E6-FECD-C34C-B71D-2022BA167656}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="2060" windowWidth="16100" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$105</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="186">
   <si>
     <t>Occupation1</t>
   </si>
@@ -566,13 +573,25 @@
   </si>
   <si>
     <t>Russ Feingold</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Senator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +603,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,11 +650,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,6 +676,1801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mandava, Ramya" refreshedDate="43398.025911574077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{DA7B7AB1-C7FF-A544-872E-07F9175D7B17}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:L105" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Occupation1" numFmtId="0">
+      <sharedItems containsBlank="1" count="15">
+        <s v="politician"/>
+        <s v="businessperson"/>
+        <m/>
+        <s v="engineer"/>
+        <s v="lawyer"/>
+        <s v="rugby union player"/>
+        <s v="journalist"/>
+        <s v="actor"/>
+        <s v="nurse"/>
+        <s v="painter"/>
+        <s v="basketball player"/>
+        <s v="association football player"/>
+        <s v="singer"/>
+        <s v="Australian rules footballer"/>
+        <s v="baseball player"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Occupation2" numFmtId="0">
+      <sharedItems containsBlank="1" count="26">
+        <s v="financial analyst"/>
+        <s v="writer"/>
+        <s v="lawyer"/>
+        <m/>
+        <s v="audio engineer"/>
+        <s v="businessperson"/>
+        <s v="publisher"/>
+        <s v="navy officer"/>
+        <s v="cattle rancher"/>
+        <s v="politician"/>
+        <s v="association football player"/>
+        <s v="television actor"/>
+        <s v="economist"/>
+        <s v="teacher"/>
+        <s v="military officer"/>
+        <s v="helicopter pilot"/>
+        <s v="basketball player"/>
+        <s v="agriculturer"/>
+        <s v="university teacher"/>
+        <s v="physician"/>
+        <s v="basketball coach"/>
+        <s v="obstetrician"/>
+        <s v="songwriter"/>
+        <s v="banker"/>
+        <s v="foreign currency trader"/>
+        <s v="instructor"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Occupation3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Occupation10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Senator" numFmtId="0">
+      <sharedItems count="103">
+        <s v="Loretta Sanchez"/>
+        <s v="Ron Unz"/>
+        <s v="Kamala Harris"/>
+        <s v="Duf Sundheim"/>
+        <s v="Phil Wyman"/>
+        <s v="Tom Del Beccaro"/>
+        <s v="Mark Matthew Herd"/>
+        <s v="Richard Shelby"/>
+        <s v="John Martin"/>
+        <s v="Lisa Murkowski"/>
+        <s v="Paul Kendall"/>
+        <s v="Thomas Lamb"/>
+        <s v="Ray Metcalfe"/>
+        <s v="Edgar Blatchford"/>
+        <s v="John McCain"/>
+        <s v="Kelli Ward"/>
+        <s v="Ann Kirkpatrick"/>
+        <s v="John Boozman"/>
+        <s v="Conner Eldridge"/>
+        <s v="Darryl Glenn"/>
+        <s v="Jack Graham"/>
+        <s v="Jon Keyser"/>
+        <s v="Ryan Frazier"/>
+        <s v="Richard Blumenthal"/>
+        <s v="Dan Carter"/>
+        <s v="Andrew Rule"/>
+        <s v="Marco Rubio"/>
+        <s v="Carlos Beruff"/>
+        <s v="Ernie Rivera"/>
+        <s v="Patrick Murphy"/>
+        <s v="Alan Grayson"/>
+        <s v="Rocky De La Fuente "/>
+        <s v="Johnny Isakson"/>
+        <s v="Mary Kay"/>
+        <s v="Jim F. Barksdale"/>
+        <s v="John Coyne"/>
+        <s v="Brian Schatz"/>
+        <s v="Makani Christensen"/>
+        <s v="Mike Crapo"/>
+        <s v="Jerry Sturgill"/>
+        <s v="Mark Kirk"/>
+        <s v="Tammy Duckworth"/>
+        <s v="Napoleon Harris"/>
+        <s v="Todd Young "/>
+        <s v="Marlin Stutzman "/>
+        <s v="Baron Hill "/>
+        <s v="Chuck Grassley"/>
+        <s v="Patty Judge"/>
+        <s v="Rob Hogg"/>
+        <s v="Tom Fiegen"/>
+        <s v="Bob Krause"/>
+        <s v="Jerry Moran"/>
+        <s v="Rand Paul"/>
+        <s v="James Gould"/>
+        <s v="Stephen Slaughter"/>
+        <s v="Foster Campbell"/>
+        <s v="Chris Van Hollen"/>
+        <s v="Donna Edwards"/>
+        <s v="Charles Smith"/>
+        <s v="Blaine Taylor"/>
+        <s v="Kathy Szeliga"/>
+        <s v="Richard Douglas"/>
+        <s v="Sean Connor"/>
+        <s v="Lynn Richardson"/>
+        <s v="Greg Holmes"/>
+        <s v="Roy Blunt"/>
+        <s v="Jason Kander"/>
+        <s v="Catherine Cortez Masto "/>
+        <s v="Joe Heck"/>
+        <s v="Sharron Angle"/>
+        <s v="Robert Leeds"/>
+        <s v="Kelly Ayotte"/>
+        <s v="Jim Rubens"/>
+        <s v="Maggie Hassan"/>
+        <s v="Chuck Schumer"/>
+        <s v="Wendy Long"/>
+        <s v="Alex Merced"/>
+        <s v="Richard Burr"/>
+        <s v="Greg Brannon"/>
+        <s v="Paul Wright"/>
+        <s v="Deborah Ross"/>
+        <s v="Kevin Griffin"/>
+        <s v="John Hoeven"/>
+        <s v="Eliot Glassheim"/>
+        <s v="Rob Portman"/>
+        <s v="Ted Strickland"/>
+        <s v="P.G. Sittenfeld"/>
+        <s v="Robert Murphy"/>
+        <s v="Ron Wyden"/>
+        <s v="Mark Callahan"/>
+        <s v="Sam Carpenter"/>
+        <s v="Pat Toomey"/>
+        <s v="Katie McGinty"/>
+        <s v="Joe Sestak"/>
+        <s v="John Fetterman"/>
+        <s v="Patrick Leahy"/>
+        <s v="Cris Ericson"/>
+        <s v="Patty Murray"/>
+        <s v="Chris Vance"/>
+        <s v="Sam Wright"/>
+        <s v="Uncle Mover"/>
+        <s v="Chuck Jackson"/>
+        <s v="Russ Feingold"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="104">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="musician"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="autobiographer"/>
+    <s v="fighter pilot"/>
+    <s v="statesperson"/>
+    <s v="aircraft pilot"/>
+    <s v="screenwriter"/>
+    <s v="writer"/>
+    <s v="author"/>
+    <s v="television presenter"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="optometrist"/>
+    <s v="business executive"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="editor-in-chief"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <s v="model"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="businessperson"/>
+    <s v="Assistant United States Attorney"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="chief executive officer"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="lawyer"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="lawyer"/>
+    <s v="congressional staff"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="American football player"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="military personnel"/>
+    <s v="consultant"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="business executive"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="bank officer"/>
+    <s v="university teacher"/>
+    <s v="celebrity"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="ophthalmologist"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="director"/>
+    <s v="executive director"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="soldier"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <s v="prosecutor"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="business executive"/>
+    <s v="faculty"/>
+    <s v="faculty"/>
+    <s v="faculty"/>
+    <s v="faculty"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="law clerk"/>
+    <s v="Prosecutor"/>
+    <s v="advisor"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="advisor"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="state's attorney"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="lobbyist"/>
+    <s v="voluntary worker"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="professor"/>
+    <s v="visiting professor"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="102"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{200A671E-8D7F-354D-8C30-21DC362DFE1D}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="7"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item x="17"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="104">
+        <item x="30"/>
+        <item x="76"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="50"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="67"/>
+        <item x="58"/>
+        <item x="56"/>
+        <item x="98"/>
+        <item x="46"/>
+        <item x="101"/>
+        <item x="74"/>
+        <item x="18"/>
+        <item x="96"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="80"/>
+        <item x="57"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="83"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="78"/>
+        <item x="64"/>
+        <item x="20"/>
+        <item x="53"/>
+        <item x="66"/>
+        <item x="51"/>
+        <item x="39"/>
+        <item x="34"/>
+        <item x="72"/>
+        <item x="68"/>
+        <item x="93"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="94"/>
+        <item x="82"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="60"/>
+        <item x="92"/>
+        <item x="15"/>
+        <item x="71"/>
+        <item x="81"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="63"/>
+        <item x="73"/>
+        <item x="37"/>
+        <item x="26"/>
+        <item x="89"/>
+        <item x="40"/>
+        <item x="6"/>
+        <item x="44"/>
+        <item x="33"/>
+        <item x="38"/>
+        <item x="42"/>
+        <item x="86"/>
+        <item x="91"/>
+        <item x="95"/>
+        <item x="29"/>
+        <item x="47"/>
+        <item x="97"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="77"/>
+        <item x="61"/>
+        <item x="7"/>
+        <item x="48"/>
+        <item x="84"/>
+        <item x="70"/>
+        <item x="87"/>
+        <item x="31"/>
+        <item x="1"/>
+        <item x="88"/>
+        <item x="65"/>
+        <item x="102"/>
+        <item x="22"/>
+        <item x="90"/>
+        <item x="99"/>
+        <item x="62"/>
+        <item x="69"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="85"/>
+        <item x="11"/>
+        <item x="43"/>
+        <item x="5"/>
+        <item x="49"/>
+        <item x="100"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Senator" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,10 +2793,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD0AC0-E705-CA46-992E-F433DC0CB0AD}">
+  <dimension ref="A3:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="5">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1095,7 +3079,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1117,7 +3101,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1156,7 +3140,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1297,7 +3281,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1414,7 +3398,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1467,7 +3451,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1475,7 +3459,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1483,7 +3467,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1522,7 +3506,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1547,7 +3531,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1643,7 +3627,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1707,7 +3691,7 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1755,7 +3739,7 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1822,7 +3806,7 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1855,7 +3839,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1874,7 +3858,7 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1882,7 +3866,7 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1981,7 +3965,7 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2059,7 +4043,7 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2092,7 +4076,7 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2100,7 +4084,7 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2189,7 +4173,7 @@
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2269,7 +4253,7 @@
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2294,7 +4278,7 @@
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2322,7 +4306,7 @@
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2341,7 +4325,7 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2377,6 +4361,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L105" xr:uid="{2DEEED83-62FF-E746-8250-31FE3928EF57}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SenatorOccupationWikiData.xlsx
+++ b/SenatorOccupationWikiData.xlsx
@@ -8,59 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramya/Documents/GitHub/Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF74E6-FECD-C34C-B71D-2022BA167656}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D05A7FF-380A-1348-ACE7-A78EE96F65CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="2060" windowWidth="16100" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6620" yWindow="2060" windowWidth="16100" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$105</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="15" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="186">
-  <si>
-    <t>Occupation1</t>
-  </si>
-  <si>
-    <t>Occupation2</t>
-  </si>
-  <si>
-    <t>Occupation3</t>
-  </si>
-  <si>
-    <t>Occupation4</t>
-  </si>
-  <si>
-    <t>Occupation5</t>
-  </si>
-  <si>
-    <t>Occupation6</t>
-  </si>
-  <si>
-    <t>Occupation7</t>
-  </si>
-  <si>
-    <t>Occupation8</t>
-  </si>
-  <si>
-    <t>Occupation9</t>
-  </si>
-  <si>
-    <t>Occupation10</t>
-  </si>
-  <si>
-    <t>Senator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>politician</t>
   </si>
@@ -104,477 +67,6 @@
     <t>baseball player</t>
   </si>
   <si>
-    <t>financial analyst</t>
-  </si>
-  <si>
-    <t>writer</t>
-  </si>
-  <si>
-    <t>audio engineer</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>navy officer</t>
-  </si>
-  <si>
-    <t>cattle rancher</t>
-  </si>
-  <si>
-    <t>television actor</t>
-  </si>
-  <si>
-    <t>economist</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>military officer</t>
-  </si>
-  <si>
-    <t>helicopter pilot</t>
-  </si>
-  <si>
-    <t>agriculturer</t>
-  </si>
-  <si>
-    <t>university teacher</t>
-  </si>
-  <si>
-    <t>physician</t>
-  </si>
-  <si>
-    <t>basketball coach</t>
-  </si>
-  <si>
-    <t>obstetrician</t>
-  </si>
-  <si>
-    <t>songwriter</t>
-  </si>
-  <si>
-    <t>banker</t>
-  </si>
-  <si>
-    <t>foreign currency trader</t>
-  </si>
-  <si>
-    <t>instructor</t>
-  </si>
-  <si>
-    <t>musician</t>
-  </si>
-  <si>
-    <t>autobiographer</t>
-  </si>
-  <si>
-    <t>optometrist</t>
-  </si>
-  <si>
-    <t>editor-in-chief</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>chief executive officer</t>
-  </si>
-  <si>
-    <t>American football player</t>
-  </si>
-  <si>
-    <t>military personnel</t>
-  </si>
-  <si>
-    <t>business executive</t>
-  </si>
-  <si>
-    <t>bank officer</t>
-  </si>
-  <si>
-    <t>ophthalmologist</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>soldier</t>
-  </si>
-  <si>
-    <t>prosecutor</t>
-  </si>
-  <si>
-    <t>law clerk</t>
-  </si>
-  <si>
-    <t>advisor</t>
-  </si>
-  <si>
-    <t>state's attorney</t>
-  </si>
-  <si>
-    <t>lobbyist</t>
-  </si>
-  <si>
-    <t>professor</t>
-  </si>
-  <si>
-    <t>fighter pilot</t>
-  </si>
-  <si>
-    <t>Assistant United States Attorney</t>
-  </si>
-  <si>
-    <t>congressional staff</t>
-  </si>
-  <si>
-    <t>consultant</t>
-  </si>
-  <si>
-    <t>executive director</t>
-  </si>
-  <si>
-    <t>faculty</t>
-  </si>
-  <si>
-    <t>Prosecutor</t>
-  </si>
-  <si>
-    <t>voluntary worker</t>
-  </si>
-  <si>
-    <t>visiting professor</t>
-  </si>
-  <si>
-    <t>statesperson</t>
-  </si>
-  <si>
-    <t>celebrity</t>
-  </si>
-  <si>
-    <t>aircraft pilot</t>
-  </si>
-  <si>
-    <t>screenwriter</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>television presenter</t>
-  </si>
-  <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
-    <t>Ron Unz</t>
-  </si>
-  <si>
-    <t>Kamala Harris</t>
-  </si>
-  <si>
-    <t>Duf Sundheim</t>
-  </si>
-  <si>
-    <t>Phil Wyman</t>
-  </si>
-  <si>
-    <t>Tom Del Beccaro</t>
-  </si>
-  <si>
-    <t>Mark Matthew Herd</t>
-  </si>
-  <si>
-    <t>Richard Shelby</t>
-  </si>
-  <si>
-    <t>John Martin</t>
-  </si>
-  <si>
-    <t>Lisa Murkowski</t>
-  </si>
-  <si>
-    <t>Paul Kendall</t>
-  </si>
-  <si>
-    <t>Thomas Lamb</t>
-  </si>
-  <si>
-    <t>Ray Metcalfe</t>
-  </si>
-  <si>
-    <t>Edgar Blatchford</t>
-  </si>
-  <si>
-    <t>John McCain</t>
-  </si>
-  <si>
-    <t>Kelli Ward</t>
-  </si>
-  <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
-    <t>John Boozman</t>
-  </si>
-  <si>
-    <t>Conner Eldridge</t>
-  </si>
-  <si>
-    <t>Darryl Glenn</t>
-  </si>
-  <si>
-    <t>Jack Graham</t>
-  </si>
-  <si>
-    <t>Jon Keyser</t>
-  </si>
-  <si>
-    <t>Ryan Frazier</t>
-  </si>
-  <si>
-    <t>Richard Blumenthal</t>
-  </si>
-  <si>
-    <t>Dan Carter</t>
-  </si>
-  <si>
-    <t>Andrew Rule</t>
-  </si>
-  <si>
-    <t>Marco Rubio</t>
-  </si>
-  <si>
-    <t>Carlos Beruff</t>
-  </si>
-  <si>
-    <t>Ernie Rivera</t>
-  </si>
-  <si>
-    <t>Patrick Murphy</t>
-  </si>
-  <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky De La Fuente </t>
-  </si>
-  <si>
-    <t>Johnny Isakson</t>
-  </si>
-  <si>
-    <t>Mary Kay</t>
-  </si>
-  <si>
-    <t>Jim F. Barksdale</t>
-  </si>
-  <si>
-    <t>John Coyne</t>
-  </si>
-  <si>
-    <t>Brian Schatz</t>
-  </si>
-  <si>
-    <t>Makani Christensen</t>
-  </si>
-  <si>
-    <t>Mike Crapo</t>
-  </si>
-  <si>
-    <t>Jerry Sturgill</t>
-  </si>
-  <si>
-    <t>Mark Kirk</t>
-  </si>
-  <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
-    <t>Napoleon Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todd Young </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marlin Stutzman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baron Hill </t>
-  </si>
-  <si>
-    <t>Chuck Grassley</t>
-  </si>
-  <si>
-    <t>Patty Judge</t>
-  </si>
-  <si>
-    <t>Rob Hogg</t>
-  </si>
-  <si>
-    <t>Tom Fiegen</t>
-  </si>
-  <si>
-    <t>Bob Krause</t>
-  </si>
-  <si>
-    <t>Jerry Moran</t>
-  </si>
-  <si>
-    <t>Rand Paul</t>
-  </si>
-  <si>
-    <t>James Gould</t>
-  </si>
-  <si>
-    <t>Stephen Slaughter</t>
-  </si>
-  <si>
-    <t>Foster Campbell</t>
-  </si>
-  <si>
-    <t>Chris Van Hollen</t>
-  </si>
-  <si>
-    <t>Donna Edwards</t>
-  </si>
-  <si>
-    <t>Charles Smith</t>
-  </si>
-  <si>
-    <t>Blaine Taylor</t>
-  </si>
-  <si>
-    <t>Kathy Szeliga</t>
-  </si>
-  <si>
-    <t>Richard Douglas</t>
-  </si>
-  <si>
-    <t>Sean Connor</t>
-  </si>
-  <si>
-    <t>Lynn Richardson</t>
-  </si>
-  <si>
-    <t>Greg Holmes</t>
-  </si>
-  <si>
-    <t>Roy Blunt</t>
-  </si>
-  <si>
-    <t>Jason Kander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catherine Cortez Masto </t>
-  </si>
-  <si>
-    <t>Joe Heck</t>
-  </si>
-  <si>
-    <t>Sharron Angle</t>
-  </si>
-  <si>
-    <t>Robert Leeds</t>
-  </si>
-  <si>
-    <t>Kelly Ayotte</t>
-  </si>
-  <si>
-    <t>Jim Rubens</t>
-  </si>
-  <si>
-    <t>Maggie Hassan</t>
-  </si>
-  <si>
-    <t>Chuck Schumer</t>
-  </si>
-  <si>
-    <t>Wendy Long</t>
-  </si>
-  <si>
-    <t>Alex Merced</t>
-  </si>
-  <si>
-    <t>Richard Burr</t>
-  </si>
-  <si>
-    <t>Greg Brannon</t>
-  </si>
-  <si>
-    <t>Paul Wright</t>
-  </si>
-  <si>
-    <t>Deborah Ross</t>
-  </si>
-  <si>
-    <t>Kevin Griffin</t>
-  </si>
-  <si>
-    <t>John Hoeven</t>
-  </si>
-  <si>
-    <t>Eliot Glassheim</t>
-  </si>
-  <si>
-    <t>Rob Portman</t>
-  </si>
-  <si>
-    <t>Ted Strickland</t>
-  </si>
-  <si>
-    <t>P.G. Sittenfeld</t>
-  </si>
-  <si>
-    <t>Robert Murphy</t>
-  </si>
-  <si>
-    <t>Ron Wyden</t>
-  </si>
-  <si>
-    <t>Mark Callahan</t>
-  </si>
-  <si>
-    <t>Sam Carpenter</t>
-  </si>
-  <si>
-    <t>Pat Toomey</t>
-  </si>
-  <si>
-    <t>Katie McGinty</t>
-  </si>
-  <si>
-    <t>Joe Sestak</t>
-  </si>
-  <si>
-    <t>John Fetterman</t>
-  </si>
-  <si>
-    <t>Patrick Leahy</t>
-  </si>
-  <si>
-    <t>Cris Ericson</t>
-  </si>
-  <si>
-    <t>Patty Murray</t>
-  </si>
-  <si>
-    <t>Chris Vance</t>
-  </si>
-  <si>
-    <t>Sam Wright</t>
-  </si>
-  <si>
-    <t>Uncle Mover</t>
-  </si>
-  <si>
-    <t>Chuck Jackson</t>
-  </si>
-  <si>
-    <t>Russ Feingold</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -591,25 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,31 +108,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -681,7 +139,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mandava, Ramya" refreshedDate="43398.025911574077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{DA7B7AB1-C7FF-A544-872E-07F9175D7B17}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:L105" sheet="Sheet1"/>
+    <worksheetSource ref="C1:L105" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Occupation1" numFmtId="0">
@@ -2231,7 +1689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{200A671E-8D7F-354D-8C30-21DC362DFE1D}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{200A671E-8D7F-354D-8C30-21DC362DFE1D}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -2796,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD0AC0-E705-CA46-992E-F433DC0CB0AD}">
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2807,1561 +2265,142 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>182</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L105"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="L54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="L60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s">
-        <v>39</v>
-      </c>
-      <c r="L62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="L68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-      <c r="L69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="L72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" t="s">
-        <v>60</v>
-      </c>
-      <c r="L74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
-      <c r="L81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" t="s">
-        <v>41</v>
-      </c>
-      <c r="L84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s">
-        <v>42</v>
-      </c>
-      <c r="L85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-      <c r="L87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
-        <v>37</v>
-      </c>
-      <c r="L88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="L91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>11</v>
-      </c>
-      <c r="L92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="L93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
-        <v>43</v>
-      </c>
-      <c r="L94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="L95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="L96" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>61</v>
-      </c>
-      <c r="L98" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" t="s">
-        <v>71</v>
-      </c>
-      <c r="L100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>24</v>
-      </c>
-      <c r="L102" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-      <c r="L104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>63</v>
-      </c>
-      <c r="E105" t="s">
-        <v>72</v>
-      </c>
-      <c r="L105" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L105" xr:uid="{2DEEED83-62FF-E746-8250-31FE3928EF57}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>